--- a/biology/Botanique/Perama_(genre)/Perama_(genre).xlsx
+++ b/biology/Botanique/Perama_(genre)/Perama_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Perama est un genre de plante herbacée néotropical appartenant à la famille des Rubiaceae, dont l'espèce type est Perama hirsuta Aubl., 1775. Ce genre comprend aujourd'hui 14 espèces valides.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List (18/11/2021)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List (18/11/2021) :
 Perama carajensis J.H.Kirkbr.
 Perama dichotoma Poepp.
 Perama galioides (Kunth) Poir.
@@ -556,9 +570,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « PERAMA. (Tabula 18.) 
 CAL. Perianthium quadripartitum ; laciniis ovatis, acutis, villoſis. 
 COR. monopetala, tubus longus, receptaculo piſtilli inſertus ; limbus quadrifidus, lobis ſubrotundis. 
